--- a/widthHCeditedforR_Avital.xlsx
+++ b/widthHCeditedforR_Avital.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avita\Dropbox\Warkentin Julie Lab\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9144" tabRatio="659"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23000" windowHeight="16080" tabRatio="659" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ColdYounger" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <sheet name="AmbientMedium" sheetId="6" r:id="rId6"/>
     <sheet name="AmbientOlder" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
   <si>
     <t>Ind48_right_60xobj_YAYHAIR</t>
   </si>
@@ -266,8 +261,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -792,19 +787,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="E188" sqref="E188:E200"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A201" sqref="A201:XFD217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.296875" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3292,33 +3287,6 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="201" spans="3:5">
-      <c r="C201" s="2"/>
-    </row>
-    <row r="202" spans="3:5">
-      <c r="C202" s="2"/>
-    </row>
-    <row r="203" spans="3:5">
-      <c r="C203" s="2"/>
-    </row>
-    <row r="204" spans="3:5">
-      <c r="C204" s="2"/>
-    </row>
-    <row r="205" spans="3:5">
-      <c r="C205" s="2"/>
-    </row>
-    <row r="206" spans="3:5">
-      <c r="C206" s="2"/>
-    </row>
-    <row r="207" spans="3:5">
-      <c r="C207" s="2"/>
-    </row>
-    <row r="208" spans="3:5">
-      <c r="C208" s="2"/>
-    </row>
-    <row r="209" spans="3:3">
-      <c r="C209" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3333,13 +3301,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="E192" sqref="E192:E202"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A203" sqref="A203:XFD217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -5827,33 +5795,6 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="3:5">
-      <c r="C203" s="2"/>
-    </row>
-    <row r="204" spans="3:5">
-      <c r="C204" s="2"/>
-    </row>
-    <row r="205" spans="3:5">
-      <c r="C205" s="2"/>
-    </row>
-    <row r="206" spans="3:5">
-      <c r="C206" s="2"/>
-    </row>
-    <row r="207" spans="3:5">
-      <c r="C207" s="2"/>
-    </row>
-    <row r="208" spans="3:5">
-      <c r="C208" s="2"/>
-    </row>
-    <row r="209" spans="3:3">
-      <c r="C209" s="2"/>
-    </row>
-    <row r="210" spans="3:3">
-      <c r="C210" s="2"/>
-    </row>
-    <row r="211" spans="3:3">
-      <c r="C211" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5870,16 +5811,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" workbookViewId="0">
+    <sheetView topLeftCell="A174" workbookViewId="0">
       <selection activeCell="E178" sqref="E178:E201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.69921875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8372,11 +8313,11 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" customWidth="1"/>
-    <col min="4" max="4" width="5.69921875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10977,15 +10918,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A186" sqref="A186"/>
+    <sheetView topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201:XFD215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.796875" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11034,7 +10975,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="8">
-        <f t="shared" ref="E3:E66" si="0">SUM(C3*D3)</f>
+        <f t="shared" ref="E3:E44" si="0">SUM(C3*D3)</f>
         <v>6</v>
       </c>
     </row>
@@ -12076,7 +12017,7 @@
         <v>2</v>
       </c>
       <c r="E76" s="8">
-        <f t="shared" ref="E67:E130" si="2">SUM(C76*D76)</f>
+        <f t="shared" ref="E76:E130" si="2">SUM(C76*D76)</f>
         <v>8</v>
       </c>
     </row>
@@ -13762,7 +13703,7 @@
         <v>2</v>
       </c>
       <c r="E195" s="8">
-        <f t="shared" ref="E195:E202" si="4">SUM(C195*D195)</f>
+        <f t="shared" ref="E195:E200" si="4">SUM(C195*D195)</f>
         <v>10</v>
       </c>
     </row>
@@ -13834,22 +13775,6 @@
       <c r="E200" s="8">
         <f t="shared" si="4"/>
         <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
-      <c r="C201" s="9"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="E202" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13865,19 +13790,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView topLeftCell="C92" workbookViewId="0">
-      <selection activeCell="E184" sqref="E184"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201:XFD213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.19921875" customWidth="1"/>
-    <col min="2" max="2" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.796875" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16287,7 +16212,7 @@
         <v>2</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E210" si="3">C195*D195</f>
+        <f t="shared" ref="E195:E200" si="3">C195*D195</f>
         <v>16</v>
       </c>
     </row>
@@ -16349,76 +16274,6 @@
       <c r="E200">
         <f t="shared" si="3"/>
         <v>12</v>
-      </c>
-    </row>
-    <row r="201" spans="3:5">
-      <c r="C201" s="2"/>
-      <c r="E201">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="3:5">
-      <c r="C202" s="2"/>
-      <c r="E202">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="3:5">
-      <c r="C203" s="2"/>
-      <c r="E203">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="3:5">
-      <c r="C204" s="2"/>
-      <c r="E204">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="3:5">
-      <c r="C205" s="2"/>
-      <c r="E205">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="3:5">
-      <c r="C206" s="2"/>
-      <c r="E206">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="3:5">
-      <c r="C207" s="2"/>
-      <c r="E207">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="3:5">
-      <c r="C208" s="2"/>
-      <c r="E208">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="3:5">
-      <c r="C209" s="2"/>
-      <c r="E209">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="3:5">
-      <c r="C210" s="2"/>
-      <c r="E210">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16434,16 +16289,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:E206"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201:XFD224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.69921875" style="4"/>
+    <col min="2" max="16384" width="10.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -19322,178 +19177,6 @@
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="5"/>
-      <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="5"/>
-      <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="5"/>
-      <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="5"/>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="5"/>
-      <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="5"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="5"/>
-      <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="5"/>
-      <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="5"/>
-      <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="5"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="5"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="5"/>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="5"/>
-      <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
-      <c r="D221" s="5"/>
-      <c r="E221" s="5"/>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="5"/>
-      <c r="B222" s="5"/>
-      <c r="C222" s="5"/>
-      <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="5"/>
-      <c r="B223" s="5"/>
-      <c r="C223" s="5"/>
-      <c r="D223" s="5"/>
-      <c r="E223" s="5"/>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="5"/>
-      <c r="B224" s="5"/>
-      <c r="C224" s="5"/>
-      <c r="D224" s="5"/>
-      <c r="E224" s="5"/>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" s="5"/>
-      <c r="B225" s="5"/>
-      <c r="C225" s="5"/>
-      <c r="D225" s="5"/>
-      <c r="E225" s="5"/>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="5"/>
-      <c r="B226" s="5"/>
-      <c r="C226" s="5"/>
-      <c r="D226" s="5"/>
-      <c r="E226" s="5"/>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" s="5"/>
-      <c r="B227" s="5"/>
-      <c r="C227" s="5"/>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="5"/>
-      <c r="B228" s="5"/>
-      <c r="C228" s="5"/>
-      <c r="D228" s="5"/>
-      <c r="E228" s="5"/>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="5"/>
-      <c r="B229" s="5"/>
-      <c r="C229" s="5"/>
-      <c r="D229" s="5"/>
-      <c r="E229" s="5"/>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="5"/>
-      <c r="B230" s="5"/>
-      <c r="C230" s="5"/>
-      <c r="D230" s="5"/>
-      <c r="E230" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
